--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_05.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_05.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Haruka Sasaki</t>
+          <t>Akira Kobayashi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Haruka Sasaki</t>
+          <t>Akira Kobayashi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Haruka Sasaki</t>
+          <t>Akira Kobayashi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Haruka Sasaki</t>
+          <t>Akira Kobayashi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Haruka Sasaki</t>
+          <t>Akira Kobayashi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Haruka Sasaki</t>
+          <t>Akira Kobayashi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Haruka Sasaki</t>
+          <t>Akira Kobayashi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Haruka Sasaki</t>
+          <t>Akira Kobayashi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Haruka Sasaki</t>
+          <t>Akira Kobayashi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Haruka Sasaki</t>
+          <t>Akira Kobayashi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Haruka Sasaki</t>
+          <t>Akira Kobayashi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Haruka Sasaki</t>
+          <t>Akira Kobayashi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Haruka Sasaki</t>
+          <t>Akira Kobayashi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Haruka Sasaki</t>
+          <t>Akira Kobayashi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Haruka Sasaki</t>
+          <t>Akira Kobayashi</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
